--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H2">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N2">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q2">
-        <v>305.9714263165951</v>
+        <v>1.103550940697778</v>
       </c>
       <c r="R2">
-        <v>305.9714263165951</v>
+        <v>9.931958466279999</v>
       </c>
       <c r="S2">
-        <v>0.01224573967008971</v>
+        <v>3.425690268238459E-05</v>
       </c>
       <c r="T2">
-        <v>0.01224573967008971</v>
+        <v>3.425690268238458E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H3">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N3">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q3">
-        <v>431.9542524872882</v>
+        <v>0.5064395748044445</v>
       </c>
       <c r="R3">
-        <v>431.9542524872882</v>
+        <v>4.55795617324</v>
       </c>
       <c r="S3">
-        <v>0.01728788661420388</v>
+        <v>1.572111498325056E-05</v>
       </c>
       <c r="T3">
-        <v>0.01728788661420388</v>
+        <v>1.572111498325056E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H4">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N4">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q4">
-        <v>327.679068861118</v>
+        <v>694.94453360738</v>
       </c>
       <c r="R4">
-        <v>327.679068861118</v>
+        <v>6254.50080246642</v>
       </c>
       <c r="S4">
-        <v>0.01311453367040442</v>
+        <v>0.02157276694666235</v>
       </c>
       <c r="T4">
-        <v>0.01311453367040442</v>
+        <v>0.02157276694666234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H5">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I5">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J5">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N5">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O5">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P5">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q5">
-        <v>7.380857302752914</v>
+        <v>937.3887804722135</v>
       </c>
       <c r="R5">
-        <v>7.380857302752914</v>
+        <v>8436.499024249921</v>
       </c>
       <c r="S5">
-        <v>0.0002954003194339802</v>
+        <v>0.02909882547686587</v>
       </c>
       <c r="T5">
-        <v>0.0002954003194339802</v>
+        <v>0.02909882547686586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.9799940683674</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H6">
-        <v>54.9799940683674</v>
+        <v>34.20143</v>
       </c>
       <c r="I6">
-        <v>0.4349814342873793</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J6">
-        <v>0.4349814342873793</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N6">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q6">
-        <v>3099.228126884454</v>
+        <v>722.7412822204956</v>
       </c>
       <c r="R6">
-        <v>3099.228126884454</v>
+        <v>6504.67153998446</v>
       </c>
       <c r="S6">
-        <v>0.1240388400869064</v>
+        <v>0.02243564556604363</v>
       </c>
       <c r="T6">
-        <v>0.1240388400869064</v>
+        <v>0.02243564556604362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.9799940683674</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H7">
-        <v>54.9799940683674</v>
+        <v>34.20143</v>
       </c>
       <c r="I7">
-        <v>0.4349814342873793</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J7">
-        <v>0.4349814342873793</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N7">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q7">
-        <v>4375.326104636796</v>
+        <v>18.55994941222111</v>
       </c>
       <c r="R7">
-        <v>4375.326104636796</v>
+        <v>167.03954470999</v>
       </c>
       <c r="S7">
-        <v>0.1751114641459706</v>
+        <v>0.0005761459279826429</v>
       </c>
       <c r="T7">
-        <v>0.1751114641459706</v>
+        <v>0.0005761459279826428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J8">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N8">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q8">
-        <v>3319.107927924195</v>
+        <v>5.331283010404889</v>
       </c>
       <c r="R8">
-        <v>3319.107927924195</v>
+        <v>47.981547093644</v>
       </c>
       <c r="S8">
-        <v>0.1328389781738456</v>
+        <v>0.0001654959789569942</v>
       </c>
       <c r="T8">
-        <v>0.1328389781738456</v>
+        <v>0.0001654959789569942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J9">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N9">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q9">
-        <v>74.76175415655693</v>
+        <v>2.446622626450222</v>
       </c>
       <c r="R9">
-        <v>74.76175415655693</v>
+        <v>22.019603638052</v>
       </c>
       <c r="S9">
-        <v>0.002992151880656801</v>
+        <v>7.59491112950616E-05</v>
       </c>
       <c r="T9">
-        <v>0.002992151880656801</v>
+        <v>7.594911129506159E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.00213905512072</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H10">
-        <v>7.00213905512072</v>
+        <v>165.227989</v>
       </c>
       <c r="I10">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J10">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N10">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q10">
-        <v>394.7113250139839</v>
+        <v>3357.294936337174</v>
       </c>
       <c r="R10">
-        <v>394.7113250139839</v>
+        <v>30215.65442703457</v>
       </c>
       <c r="S10">
-        <v>0.01579733176115621</v>
+        <v>0.1042185926074638</v>
       </c>
       <c r="T10">
-        <v>0.01579733176115621</v>
+        <v>0.1042185926074638</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.00213905512072</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H11">
-        <v>7.00213905512072</v>
+        <v>165.227989</v>
       </c>
       <c r="I11">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J11">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N11">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O11">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P11">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q11">
-        <v>557.2325409506226</v>
+        <v>4528.549335761291</v>
       </c>
       <c r="R11">
-        <v>557.2325409506226</v>
+        <v>40756.94402185162</v>
       </c>
       <c r="S11">
-        <v>0.02230183620193108</v>
+        <v>0.1405771751591823</v>
       </c>
       <c r="T11">
-        <v>0.02230183620193108</v>
+        <v>0.1405771751591823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.00213905512072</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H12">
-        <v>7.00213905512072</v>
+        <v>165.227989</v>
       </c>
       <c r="I12">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J12">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N12">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q12">
-        <v>422.7147645992633</v>
+        <v>3491.58174463974</v>
       </c>
       <c r="R12">
-        <v>422.7147645992633</v>
+        <v>31424.23570175766</v>
       </c>
       <c r="S12">
-        <v>0.01691809926273849</v>
+        <v>0.1083871814363948</v>
       </c>
       <c r="T12">
-        <v>0.01691809926273849</v>
+        <v>0.1083871814363947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.00213905512072</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H13">
-        <v>7.00213905512072</v>
+        <v>165.227989</v>
       </c>
       <c r="I13">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J13">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N13">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q13">
-        <v>9.521503366442722</v>
+        <v>89.66359352000856</v>
       </c>
       <c r="R13">
-        <v>9.521503366442722</v>
+        <v>806.9723416800771</v>
       </c>
       <c r="S13">
-        <v>0.0003810743143469029</v>
+        <v>0.002783375813558407</v>
       </c>
       <c r="T13">
-        <v>0.0003810743143469029</v>
+        <v>0.002783375813558407</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.9830157798922</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H14">
-        <v>10.9830157798922</v>
+        <v>40.439815</v>
       </c>
       <c r="I14">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J14">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N14">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q14">
-        <v>619.1137703785581</v>
+        <v>1.304840057415556</v>
       </c>
       <c r="R14">
-        <v>619.1137703785581</v>
+        <v>11.74356051674</v>
       </c>
       <c r="S14">
-        <v>0.02477847735487162</v>
+        <v>4.05054059712894E-05</v>
       </c>
       <c r="T14">
-        <v>0.02477847735487162</v>
+        <v>4.05054059712894E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.9830157798922</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H15">
-        <v>10.9830157798922</v>
+        <v>40.439815</v>
       </c>
       <c r="I15">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J15">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N15">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q15">
-        <v>874.0320268067857</v>
+        <v>0.5988148072688889</v>
       </c>
       <c r="R15">
-        <v>874.0320268067857</v>
+        <v>5.38933326542</v>
       </c>
       <c r="S15">
-        <v>0.0349809418233779</v>
+        <v>1.858866665856898E-05</v>
       </c>
       <c r="T15">
-        <v>0.0349809418233779</v>
+        <v>1.858866665856897E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.9830157798922</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H16">
-        <v>10.9830157798922</v>
+        <v>40.439815</v>
       </c>
       <c r="I16">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J16">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N16">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q16">
-        <v>663.0378079384034</v>
+        <v>821.7033139942901</v>
       </c>
       <c r="R16">
-        <v>663.0378079384034</v>
+        <v>7395.32982594861</v>
       </c>
       <c r="S16">
-        <v>0.02653642689837099</v>
+        <v>0.02550766749697718</v>
       </c>
       <c r="T16">
-        <v>0.02653642689837099</v>
+        <v>0.02550766749697718</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.9830157798922</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H17">
-        <v>10.9830157798922</v>
+        <v>40.439815</v>
       </c>
       <c r="I17">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J17">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N17">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O17">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P17">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q17">
-        <v>14.93469651184101</v>
+        <v>1108.369704581707</v>
       </c>
       <c r="R17">
-        <v>14.93469651184101</v>
+        <v>9975.327341235361</v>
       </c>
       <c r="S17">
-        <v>0.0005977238062307345</v>
+        <v>0.03440648882230195</v>
       </c>
       <c r="T17">
-        <v>0.0005977238062307345</v>
+        <v>0.03440648882230194</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.46935703894511</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H18">
-        <v>2.46935703894511</v>
+        <v>40.439815</v>
       </c>
       <c r="I18">
-        <v>0.01953664209625615</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J18">
-        <v>0.01953664209625615</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N18">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q18">
-        <v>139.1979195360078</v>
+        <v>854.5702254513811</v>
       </c>
       <c r="R18">
-        <v>139.1979195360078</v>
+        <v>7691.13202906243</v>
       </c>
       <c r="S18">
-        <v>0.005571047943190227</v>
+        <v>0.02652793629086195</v>
       </c>
       <c r="T18">
-        <v>0.005571047943190227</v>
+        <v>0.02652793629086194</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.46935703894511</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H19">
-        <v>2.46935703894511</v>
+        <v>40.439815</v>
       </c>
       <c r="I19">
-        <v>0.01953664209625615</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J19">
-        <v>0.01953664209625615</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N19">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q19">
-        <v>196.5122495417175</v>
+        <v>21.94530815347722</v>
       </c>
       <c r="R19">
-        <v>196.5122495417175</v>
+        <v>197.507773381295</v>
       </c>
       <c r="S19">
-        <v>0.007864910389970817</v>
+        <v>0.0006812356892861322</v>
       </c>
       <c r="T19">
-        <v>0.007864910389970817</v>
+        <v>0.0006812356892861322</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.46935703894511</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H20">
-        <v>2.46935703894511</v>
+        <v>43.595609</v>
       </c>
       <c r="I20">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J20">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N20">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q20">
-        <v>149.0735432718738</v>
+        <v>1.406665607907111</v>
       </c>
       <c r="R20">
-        <v>149.0735432718738</v>
+        <v>12.659990471164</v>
       </c>
       <c r="S20">
-        <v>0.005966295038008942</v>
+        <v>4.366631848119478E-05</v>
       </c>
       <c r="T20">
-        <v>0.005966295038008942</v>
+        <v>4.366631848119478E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.46935703894511</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H21">
-        <v>2.46935703894511</v>
+        <v>43.595609</v>
       </c>
       <c r="I21">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J21">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N21">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P21">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q21">
-        <v>3.35782982516898</v>
+        <v>0.6455444022457778</v>
       </c>
       <c r="R21">
-        <v>3.35782982516898</v>
+        <v>5.809899620212001</v>
       </c>
       <c r="S21">
-        <v>0.0001343887250861634</v>
+        <v>2.003926683339945E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001343887250861634</v>
+        <v>2.003926683339945E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.5337773717097</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H22">
-        <v>45.5337773717097</v>
+        <v>43.595609</v>
       </c>
       <c r="I22">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J22">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N22">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O22">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P22">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q22">
-        <v>2566.743884661318</v>
+        <v>885.826416142094</v>
       </c>
       <c r="R22">
-        <v>2566.743884661318</v>
+        <v>7972.437745278846</v>
       </c>
       <c r="S22">
-        <v>0.1027274925300844</v>
+        <v>0.02749820439831947</v>
       </c>
       <c r="T22">
-        <v>0.1027274925300844</v>
+        <v>0.02749820439831947</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.5337773717097</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H23">
-        <v>45.5337773717097</v>
+        <v>43.595609</v>
       </c>
       <c r="I23">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J23">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N23">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O23">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P23">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q23">
-        <v>3623.593056947698</v>
+        <v>1194.863336253878</v>
       </c>
       <c r="R23">
-        <v>3623.593056947698</v>
+        <v>10753.7700262849</v>
       </c>
       <c r="S23">
-        <v>0.1450252325189732</v>
+        <v>0.03709146131751458</v>
       </c>
       <c r="T23">
-        <v>0.1450252325189732</v>
+        <v>0.03709146131751458</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.5337773717097</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H24">
-        <v>45.5337773717097</v>
+        <v>43.595609</v>
       </c>
       <c r="I24">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J24">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N24">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O24">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P24">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q24">
-        <v>2748.84572149727</v>
+        <v>921.2581563941442</v>
       </c>
       <c r="R24">
-        <v>2748.84572149727</v>
+        <v>8291.323407547297</v>
       </c>
       <c r="S24">
-        <v>0.1100156622594722</v>
+        <v>0.02859809171019521</v>
       </c>
       <c r="T24">
-        <v>0.1100156622594722</v>
+        <v>0.0285980917101952</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.5337773717097</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H25">
-        <v>45.5337773717097</v>
+        <v>43.595609</v>
       </c>
       <c r="I25">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J25">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N25">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O25">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P25">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q25">
-        <v>61.91679587033176</v>
+        <v>23.65784990963745</v>
       </c>
       <c r="R25">
-        <v>61.91679587033176</v>
+        <v>212.920649186737</v>
       </c>
       <c r="S25">
-        <v>0.002478064610679121</v>
+        <v>0.0007343971466477704</v>
       </c>
       <c r="T25">
-        <v>0.002478064610679121</v>
+        <v>0.0007343971466477704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.664875</v>
+      </c>
+      <c r="H26">
+        <v>7.994625</v>
+      </c>
+      <c r="I26">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J26">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.290396</v>
+      </c>
+      <c r="O26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q26">
+        <v>0.2579563468333333</v>
+      </c>
+      <c r="R26">
+        <v>2.3216071215</v>
+      </c>
+      <c r="S26">
+        <v>8.007591805581194E-06</v>
+      </c>
+      <c r="T26">
+        <v>8.007591805581194E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.664875</v>
+      </c>
+      <c r="H27">
+        <v>7.994625</v>
+      </c>
+      <c r="I27">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J27">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.133268</v>
+      </c>
+      <c r="O27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q27">
+        <v>0.1183808538333333</v>
+      </c>
+      <c r="R27">
+        <v>1.0654276845</v>
+      </c>
+      <c r="S27">
+        <v>3.674829352836109E-06</v>
+      </c>
+      <c r="T27">
+        <v>3.674829352836109E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.664875</v>
+      </c>
+      <c r="H28">
+        <v>7.994625</v>
+      </c>
+      <c r="I28">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J28">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N28">
+        <v>182.872494</v>
+      </c>
+      <c r="O28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q28">
+        <v>162.44411248275</v>
+      </c>
+      <c r="R28">
+        <v>1461.99701234475</v>
+      </c>
+      <c r="S28">
+        <v>0.005042659969216504</v>
+      </c>
+      <c r="T28">
+        <v>0.005042659969216504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.664875</v>
+      </c>
+      <c r="H29">
+        <v>7.994625</v>
+      </c>
+      <c r="I29">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J29">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N29">
+        <v>246.670944</v>
+      </c>
+      <c r="O29">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P29">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q29">
+        <v>219.115743964</v>
+      </c>
+      <c r="R29">
+        <v>1972.041695676</v>
+      </c>
+      <c r="S29">
+        <v>0.006801885114978781</v>
+      </c>
+      <c r="T29">
+        <v>0.006801885114978781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.664875</v>
+      </c>
+      <c r="H30">
+        <v>7.994625</v>
+      </c>
+      <c r="I30">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J30">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N30">
+        <v>190.187122</v>
+      </c>
+      <c r="O30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q30">
+        <v>168.9416355799166</v>
+      </c>
+      <c r="R30">
+        <v>1520.47472021925</v>
+      </c>
+      <c r="S30">
+        <v>0.005244358874276061</v>
+      </c>
+      <c r="T30">
+        <v>0.005244358874276061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.664875</v>
+      </c>
+      <c r="H31">
+        <v>7.994625</v>
+      </c>
+      <c r="I31">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J31">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N31">
+        <v>4.883993</v>
+      </c>
+      <c r="O31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q31">
+        <v>4.338410281958333</v>
+      </c>
+      <c r="R31">
+        <v>39.045692537625</v>
+      </c>
+      <c r="S31">
+        <v>0.0001346747969163346</v>
+      </c>
+      <c r="T31">
+        <v>0.0001346747969163346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H32">
+        <v>172.393381</v>
+      </c>
+      <c r="I32">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J32">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N32">
+        <v>0.290396</v>
+      </c>
+      <c r="O32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q32">
+        <v>5.562483140986222</v>
+      </c>
+      <c r="R32">
+        <v>50.062348268876</v>
+      </c>
+      <c r="S32">
+        <v>0.0001726729927960395</v>
+      </c>
+      <c r="T32">
+        <v>0.0001726729927960394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H33">
+        <v>172.393381</v>
+      </c>
+      <c r="I33">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J33">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.133268</v>
+      </c>
+      <c r="O33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q33">
+        <v>2.552724566567556</v>
+      </c>
+      <c r="R33">
+        <v>22.974521099108</v>
+      </c>
+      <c r="S33">
+        <v>7.924277333001345E-05</v>
+      </c>
+      <c r="T33">
+        <v>7.924277333001344E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H34">
+        <v>172.393381</v>
+      </c>
+      <c r="I34">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J34">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N34">
+        <v>182.872494</v>
+      </c>
+      <c r="O34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q34">
+        <v>3502.889725840246</v>
+      </c>
+      <c r="R34">
+        <v>31526.00753256221</v>
+      </c>
+      <c r="S34">
+        <v>0.1087382086497602</v>
+      </c>
+      <c r="T34">
+        <v>0.1087382086497602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H35">
+        <v>172.393381</v>
+      </c>
+      <c r="I35">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J35">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N35">
+        <v>246.670944</v>
+      </c>
+      <c r="O35">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P35">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q35">
+        <v>4724.937558957963</v>
+      </c>
+      <c r="R35">
+        <v>42524.43803062167</v>
+      </c>
+      <c r="S35">
+        <v>0.1466735428046676</v>
+      </c>
+      <c r="T35">
+        <v>0.1466735428046676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H36">
+        <v>172.393381</v>
+      </c>
+      <c r="I36">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J36">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N36">
+        <v>190.187122</v>
+      </c>
+      <c r="O36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q36">
+        <v>3643.000109359942</v>
+      </c>
+      <c r="R36">
+        <v>32787.00098423948</v>
+      </c>
+      <c r="S36">
+        <v>0.11308757540395</v>
+      </c>
+      <c r="T36">
+        <v>0.11308757540395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H37">
+        <v>172.393381</v>
+      </c>
+      <c r="I37">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J37">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.883993</v>
+      </c>
+      <c r="O37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q37">
+        <v>93.55200733892589</v>
+      </c>
+      <c r="R37">
+        <v>841.9680660503331</v>
+      </c>
+      <c r="S37">
+        <v>0.00290408162682994</v>
+      </c>
+      <c r="T37">
+        <v>0.00290408162682994</v>
       </c>
     </row>
   </sheetData>
